--- a/classfiers/chatty/welm/smote/chatty_welm_rbf_smote_results.xlsx
+++ b/classfiers/chatty/welm/smote/chatty_welm_rbf_smote_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4967320261437909</v>
+        <v>0.5012048192771085</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5163398692810458</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.485838779956427</v>
+        <v>0.5228915662650603</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.5204819277108433</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5109170305676856</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5000047568760644</v>
+        <v>0.4999755543914789</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
